--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31697-2023</t>
+          <t>A 15571-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45117</v>
+        <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>11.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -893,290 +893,290 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Oxtungssvamp
+Guldlockmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 28247-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skugglosta
+Nästrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 31697-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Lövgroda
 Större vattensalamander</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 15571-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 16122-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45406.50112268519</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Guldlockmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 16122-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45406.50112268519</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Oxtungssvamp
 Myskmadra</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28247-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Skugglosta
-Nästrot</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 16684-2023</t>
+          <t>A 2482-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45030</v>
+        <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1315,52 +1315,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Större grynsnäcka</t>
+          <t>Korallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31700-2023</t>
+          <t>A 16684-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45117</v>
+        <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1407,45 +1407,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Revig blodrot</t>
+          <t>Större grynsnäcka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2482-2025</t>
+          <t>A 31700-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45674</v>
+        <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1485,38 +1485,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Korallticka</t>
+          <t>Revig blodrot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45734</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45048</v>
+        <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45406</v>
+        <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13.5</v>
+        <v>8.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45233</v>
+        <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45240</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45463</v>
+        <v>44907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45463</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.4</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45117</v>
+        <v>45825</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44368</v>
+        <v>45734</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45117</v>
+        <v>44897</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>8.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45005</v>
+        <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44524</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45674.379375</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45030</v>
+        <v>45233</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44907</v>
+        <v>45400</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44897</v>
+        <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>8.9</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44897</v>
+        <v>46021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>46021</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
         <v>46021</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>46021</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46021</v>
+        <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45232</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45240</v>
+        <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.8</v>
+        <v>8.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45160</v>
+        <v>45406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>13.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45400</v>
+        <v>45005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44741</v>
+        <v>45048</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45104</v>
+        <v>45232</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>44524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45427</v>
+        <v>45030</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45825</v>
+        <v>45427</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45818</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45406.50112268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45240</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>45714.63053240741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45825</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45950.38170138889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45734</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>44897</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>45232.69699074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>46021.6172337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45985.51048611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>45233</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45232.69518518518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45400</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>46021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>46021</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>46021</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>46021</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45401.68829861111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45428.63112268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>45401.66103009259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>45005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45048</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>45232</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45401.69502314815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45030</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45427</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45818</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45406.50112268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45240</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>45714.63053240741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45825</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45950.38170138889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45734</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>44897</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>45232.69699074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>46021.6172337963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45985.51048611111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>45233</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45232.69518518518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45400</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>46021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>46021</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>46021</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>46021</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45401.68829861111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45428.63112268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>45401.66103009259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>45005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45048</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>45232</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45401.69502314815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45030</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45427</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 15571-2024</t>
+          <t>A 31697-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45401</v>
+        <v>45117</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11.1</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -893,290 +893,290 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Lövgroda
+Större vattensalamander</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 15571-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Oxtungssvamp
 Guldlockmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 16122-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45406.50112268519</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Oxtungssvamp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 28247-2025</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45818</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>6.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Skugglosta
 Nästrot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 31697-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Lövgroda
-Större vattensalamander</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 16122-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45406.50112268519</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45674.379375</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45104</v>
+        <v>45463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45240</v>
+        <v>44368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44907</v>
+        <v>45005</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45463</v>
+        <v>44524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45825</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45674.379375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45734</v>
+        <v>45030</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.9</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>44897</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.4</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45825</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45233</v>
+        <v>45734</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45048</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45400</v>
+        <v>45406</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>13.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44368</v>
+        <v>45233</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46021</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46021</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46021</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46021</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45117</v>
+        <v>45232</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45160</v>
+        <v>45240</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45160</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44741</v>
+        <v>46021</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8.9</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45406</v>
+        <v>46021</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>13.5</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>46021</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45005</v>
+        <v>46021</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45048</v>
+        <v>45400</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45232</v>
+        <v>44741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>8.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44524</v>
+        <v>45104</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45030</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>45427</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31697-2023</t>
+          <t>A 15571-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45117</v>
+        <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>11.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -893,290 +893,290 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Oxtungssvamp
+Guldlockmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 16122-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45406.50112268519</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Oxtungssvamp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 28247-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Skugglosta
+Nästrot</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 31697-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Lövgroda
 Större vattensalamander</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 15571-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Guldlockmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 16122-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45406.50112268519</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28247-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Skugglosta
-Nästrot</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45463</v>
+        <v>45048</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45117</v>
+        <v>45232</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44368</v>
+        <v>44524</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>8.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45117</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>7.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45005</v>
+        <v>45030</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44524</v>
+        <v>45104</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>45117</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45674.379375</v>
+        <v>45427</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45030</v>
+        <v>45240</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44907</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>8.9</v>
+        <v>5.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44897</v>
+        <v>45463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45825</v>
+        <v>45734</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45734</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45048</v>
+        <v>44897</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45406</v>
+        <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>13.5</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45233</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45233</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45400</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45232</v>
+        <v>44368</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45240</v>
+        <v>46021</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45160</v>
+        <v>46021</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>46021</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>46021</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46021</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46021</v>
+        <v>45117</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46021</v>
+        <v>45160</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45400</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44741</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45104</v>
+        <v>44741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>45406</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>13.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45427</v>
+        <v>45005</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 15571-2024</t>
+          <t>A 31697-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45401</v>
+        <v>45117</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11.1</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -893,290 +893,290 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Lövgroda
+Större vattensalamander</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 28247-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skugglosta
+Nästrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 15571-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Oxtungssvamp
 Guldlockmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 16122-2024</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45406.50112268519</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>15.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Oxtungssvamp
 Myskmadra</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 28247-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skugglosta
-Nästrot</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 31697-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Lövgroda
-Större vattensalamander</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2482-2025</t>
+          <t>A 16684-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45674</v>
+        <v>45030</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1315,52 +1315,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Korallticka</t>
+          <t>Större grynsnäcka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 16684-2023</t>
+          <t>A 31700-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45030</v>
+        <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1407,45 +1407,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Större grynsnäcka</t>
+          <t>Revig blodrot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 31700-2023</t>
+          <t>A 2482-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45117</v>
+        <v>45674</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1485,38 +1485,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Revig blodrot</t>
+          <t>Korallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>44368</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45674.379375</v>
+        <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45048</v>
+        <v>45406</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>13.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44524</v>
+        <v>45005</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45030</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45104</v>
+        <v>44524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45117</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45427</v>
+        <v>45674.379375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45240</v>
+        <v>45463</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45030</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44907</v>
+        <v>45117</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45463</v>
+        <v>44907</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45825</v>
+        <v>44897</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45734</v>
+        <v>44897</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44897</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44897</v>
+        <v>45232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>45825</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45104</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45400</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44368</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46021</v>
+        <v>45734</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46021</v>
+        <v>45048</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46021</v>
+        <v>45400</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46021</v>
+        <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45117</v>
+        <v>45427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45160</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>46021</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44741</v>
+        <v>46021</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45406</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>13.5</v>
+        <v>6.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>46021</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45005</v>
+        <v>46021</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31697-2023</t>
+          <t>A 15571-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45117</v>
+        <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>11.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -893,204 +893,204 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Oxtungssvamp
+Guldlockmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 28247-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skugglosta
+Nästrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 31697-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Lövgroda
 Större vattensalamander</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 28247-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Skugglosta
-Nästrot</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 15571-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Guldlockmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>45406.50112268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 16684-2023</t>
+          <t>A 2482-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45030</v>
+        <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1315,52 +1315,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Större grynsnäcka</t>
+          <t>Korallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31700-2023</t>
+          <t>A 16684-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45117</v>
+        <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1407,45 +1407,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Revig blodrot</t>
+          <t>Större grynsnäcka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2482-2025</t>
+          <t>A 31700-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45674</v>
+        <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1485,38 +1485,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Korallticka</t>
+          <t>Revig blodrot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44368</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45117</v>
+        <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45406</v>
+        <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13.5</v>
+        <v>8.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45233</v>
+        <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45005</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45240</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>46021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44524</v>
+        <v>46021</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8.1</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>46021</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45674.379375</v>
+        <v>46021</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45463</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45030</v>
+        <v>44907</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45117</v>
+        <v>45825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44907</v>
+        <v>45463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44897</v>
+        <v>45734</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>44897</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>44897</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45232</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45825</v>
+        <v>45233</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45104</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8.1</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45240</v>
+        <v>45400</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45160</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>44368</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45734</v>
+        <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45048</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45400</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45406</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>13.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45427</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45005</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45048</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46021</v>
+        <v>45232</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46021</v>
+        <v>44524</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>8.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46021</v>
+        <v>45030</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46021</v>
+        <v>45427</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45818</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45406.50112268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45104</v>
+        <v>45427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45117</v>
+        <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>45240</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46021</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46021</v>
+        <v>45825</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46021</v>
+        <v>44907</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46021</v>
+        <v>45463</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45734</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44907</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45825</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45463</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45734</v>
+        <v>46021</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44897</v>
+        <v>46021</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>8.9</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44897</v>
+        <v>46021</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>46021</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>44897</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.8</v>
+        <v>8.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45233</v>
+        <v>44897</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45400</v>
+        <v>45233</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44368</v>
+        <v>45400</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45117</v>
+        <v>44368</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45160</v>
+        <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45160</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44741</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45406</v>
+        <v>44741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>13.5</v>
+        <v>8.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45005</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45048</v>
+        <v>45005</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45232</v>
+        <v>45048</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44524</v>
+        <v>45232</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>44524</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45030</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45427</v>
+        <v>45030</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,14 +925,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 28247-2025</t>
+          <t>A 16122-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45818</v>
+        <v>45406.50112268519</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>15.2</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -979,204 +979,204 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Oxtungssvamp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 28247-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Skugglosta
 Nästrot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 31697-2023</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45117</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Lövgroda
 Större vattensalamander</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 16122-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45406.50112268519</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>45240</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>6.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45825</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>44907</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45463</v>
+        <v>45825</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45734</v>
+        <v>45463</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>45950.38170138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45734</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>44897</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46021</v>
+        <v>44897</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46021</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46021</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46021</v>
+        <v>45233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44897</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44897</v>
+        <v>46021</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>46021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45233</v>
+        <v>46021</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>46021</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 9570-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45400</v>
+        <v>46070</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44368</v>
+        <v>45400</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45117</v>
+        <v>44368</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45160</v>
+        <v>45117</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45160</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44741</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45406</v>
+        <v>44741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>13.5</v>
+        <v>8.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45406</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45005</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45048</v>
+        <v>45005</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45232</v>
+        <v>45048</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44524</v>
+        <v>45232</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.1</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,116 +3746,173 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
+          <t>A 67456-2021</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>44524</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>A 15582-2024</t>
         </is>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B53" s="1" t="n">
         <v>45401.69502314815</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
+      <c r="C53" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
         <v>7.3</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>A 16690-2023</t>
         </is>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B54" s="1" t="n">
         <v>45030</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
+      <c r="C54" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>0.9</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 15571-2024</t>
+          <t>A 16122-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45401</v>
+        <v>45406.50112268519</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11.1</v>
+        <v>15.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -894,45 +894,45 @@
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Oxtungssvamp
-Guldlockmossa</t>
+Myskmadra</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 16122-2024</t>
+          <t>A 31697-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45406.50112268519</v>
+        <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>15.2</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -979,32 +979,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Oxtungssvamp
-Myskmadra</t>
+          <t>Lövgroda
+Större vattensalamander</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>45818</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1097,14 +1097,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 31697-2023</t>
+          <t>A 15571-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45117</v>
+        <v>45401</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,16 +1117,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>11.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1151,32 +1151,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda
-Större vattensalamander</t>
+          <t>Oxtungssvamp
+Guldlockmossa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45674.379375</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45427</v>
+        <v>45463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45104</v>
+        <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.1</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45117</v>
+        <v>45427</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45240</v>
+        <v>44368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.9</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44907</v>
+        <v>45005</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45825</v>
+        <v>44524</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45463</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45674.379375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45734</v>
+        <v>45030</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44897</v>
+        <v>44907</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.9</v>
+        <v>5.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>44897</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>44897</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45233</v>
+        <v>45825</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46021</v>
+        <v>45734</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46021</v>
+        <v>45048</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46021</v>
+        <v>45406</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>13.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46021</v>
+        <v>45233</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9570-2026</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46070</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45400</v>
+        <v>46021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44368</v>
+        <v>46021</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45117</v>
+        <v>46021</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45160</v>
+        <v>46021</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 9570-2026</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>46070</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>45428.63112268518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44741</v>
+        <v>45232</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.9</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45406</v>
+        <v>45240</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>13.5</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45160</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45005</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45048</v>
+        <v>45400</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45232</v>
+        <v>44741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>8.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44524</v>
+        <v>45104</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3803,14 +3803,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3860,14 +3860,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45030</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 16122-2024</t>
+          <t>A 15571-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45406.50112268519</v>
+        <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>15.2</v>
+        <v>11.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -894,45 +894,45 @@
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Oxtungssvamp
-Myskmadra</t>
+Guldlockmossa</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 31697-2023</t>
+          <t>A 28247-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45117</v>
+        <v>45818</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -979,132 +979,132 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Skugglosta
+Nästrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 31697-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Lövgroda
 Större vattensalamander</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 28247-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skugglosta
-Nästrot</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 15571-2024</t>
+          <t>A 16122-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45401</v>
+        <v>45406.50112268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>11.1</v>
+        <v>15.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1152,31 +1152,31 @@
       <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Oxtungssvamp
-Guldlockmossa</t>
+Myskmadra</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45463</v>
+        <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45427</v>
+        <v>45240</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44368</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45117</v>
+        <v>44907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45463</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45005</v>
+        <v>45825</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44524</v>
+        <v>45734</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>8.1</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45674.379375</v>
+        <v>44897</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>8.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45030</v>
+        <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44907</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44897</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8.9</v>
+        <v>6.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44897</v>
+        <v>45233</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45825</v>
+        <v>45400</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45734</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45048</v>
+        <v>46021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45406</v>
+        <v>46021</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>13.5</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45233</v>
+        <v>46021</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 9570-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>46070</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>46021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46021</v>
+        <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46021</v>
+        <v>45160</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46021</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9570-2026</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46070</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>44741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45232</v>
+        <v>45406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>13.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45240</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45160</v>
+        <v>45005</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45048</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45400</v>
+        <v>45232</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44741</v>
+        <v>44524</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45104</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>45030</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3860,14 +3860,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45427</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45818</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45406.50112268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45240</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>45714.63053240741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45825</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45734</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45950.38170138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>44897</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>45232.69699074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>45985.51048611111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45233</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>45232.69518518518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45400</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>46021.6172337963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>46021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>46021</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>46021</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>46070</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>46021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45160</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45401.68829861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45428.63112268518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>45406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>45401.66103009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45005</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>45048</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>45232</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44524</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45401.69502314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45030</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45427</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45818</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45117</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45406.50112268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45104</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>45240</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>45714.63053240741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>44907</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45463</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45825</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45734</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45950.38170138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>44897</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>45232.69699074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>45985.51048611111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45233</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>45232.69518518518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45400</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>46021.6172337963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>46021</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>46021</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>46021</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>46070</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>46021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45117</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45160</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45401.68829861111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45428.63112268518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>45406</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>45401.66103009259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45005</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>45048</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>45232</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44524</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45401.69502314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45030</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45427</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 15571-2024</t>
+          <t>A 31697-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45401</v>
+        <v>45117</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11.1</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -893,290 +893,290 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Lövgroda
+Större vattensalamander</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 15571-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Oxtungssvamp
 Guldlockmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 16122-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45406.50112268519</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Oxtungssvamp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 28247-2025</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45818</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>6.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Skugglosta
 Nästrot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 31697-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Lövgroda
-Större vattensalamander</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 16122-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45406.50112268519</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2482-2025</t>
+          <t>A 16684-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45674</v>
+        <v>45030</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1315,52 +1315,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Korallticka</t>
+          <t>Större grynsnäcka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 16684-2023</t>
+          <t>A 31700-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45030</v>
+        <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1407,45 +1407,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Större grynsnäcka</t>
+          <t>Revig blodrot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 31700-2023</t>
+          <t>A 2482-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45117</v>
+        <v>45674</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1485,38 +1485,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Revig blodrot</t>
+          <t>Korallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>45463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45674.379375</v>
+        <v>45030</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45104</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45117</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>7.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45240</v>
+        <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>44907</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44907</v>
+        <v>44897</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>8.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45463</v>
+        <v>44897</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45825</v>
+        <v>45048</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45734</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>13.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44897</v>
+        <v>45233</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.9</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44897</v>
+        <v>44368</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>45117</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45233</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45400</v>
+        <v>45232</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44368</v>
+        <v>44524</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>8.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45240</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46021</v>
+        <v>45160</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46021</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46021</v>
+        <v>45674.379375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9570-2026</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46070</v>
+        <v>45400</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46021</v>
+        <v>44741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>8.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45117</v>
+        <v>45104</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>8.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45160</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44741</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8.9</v>
+        <v>6.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45406</v>
+        <v>45427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 9570-2026</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45005</v>
+        <v>46070</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45048</v>
+        <v>45825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45232</v>
+        <v>46021</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44524</v>
+        <v>46021</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.1</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>46021</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45030</v>
+        <v>46021</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3860,14 +3860,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45427</v>
+        <v>45734</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 31697-2023</t>
+          <t>A 15571-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45117</v>
+        <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>11.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -893,290 +893,290 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Oxtungssvamp
+Guldlockmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 16122-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45406.50112268519</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Oxtungssvamp
+Myskmadra</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 28247-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Skugglosta
+Nästrot</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 31697-2023</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Lövgroda
 Större vattensalamander</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 15571-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45401</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Guldlockmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 16122-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45406.50112268519</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Oxtungssvamp
-Myskmadra</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28247-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Skugglosta
-Nästrot</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 16684-2023</t>
+          <t>A 2482-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45030</v>
+        <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1315,52 +1315,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Större grynsnäcka</t>
+          <t>Korallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31700-2023</t>
+          <t>A 16684-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45117</v>
+        <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1407,45 +1407,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Revig blodrot</t>
+          <t>Större grynsnäcka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2482-2025</t>
+          <t>A 31700-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45674</v>
+        <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1485,38 +1485,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Korallticka</t>
+          <t>Revig blodrot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45463</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45030</v>
+        <v>45674.379375</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45030</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>45104</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45117</v>
+        <v>45427</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44907</v>
+        <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44897</v>
+        <v>45240</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44897</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45048</v>
+        <v>44907</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45463</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45406</v>
+        <v>45825</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>13.5</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45233</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44368</v>
+        <v>45734</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45117</v>
+        <v>44897</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>8.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>44897</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45005</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>6.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44524</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8.1</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45240</v>
+        <v>45400</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45160</v>
+        <v>44368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45674.379375</v>
+        <v>46021</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45400</v>
+        <v>46021</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44741</v>
+        <v>46021</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 9570-2026</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45104</v>
+        <v>46070</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>46021</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45117</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45160</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45427</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>44741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9570-2026</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46070</v>
+        <v>45406</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.6</v>
+        <v>13.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45825</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46021</v>
+        <v>45005</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46021</v>
+        <v>45048</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46021</v>
+        <v>45232</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46021</v>
+        <v>44524</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>8.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3860,14 +3860,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45734</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>7.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45401</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,14 +925,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 16122-2024</t>
+          <t>A 31697-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45406.50112268519</v>
+        <v>45117</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>15.2</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -979,204 +979,204 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Lövgroda
+Större vattensalamander</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 16122-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45406.50112268519</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Oxtungssvamp
 Myskmadra</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 28247-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45818</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>6.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Skugglosta
 Nästrot</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 31697-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Lövgroda
-Större vattensalamander</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2482-2025</t>
+          <t>A 16684-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45674</v>
+        <v>45030</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1315,52 +1315,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Korallticka</t>
+          <t>Större grynsnäcka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 16684-2023</t>
+          <t>A 31700-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45030</v>
+        <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1407,45 +1407,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Större grynsnäcka</t>
+          <t>Revig blodrot</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 31700-2023</t>
+          <t>A 2482-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45117</v>
+        <v>45674</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1485,38 +1485,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Revig blodrot</t>
+          <t>Korallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>44907</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45674.379375</v>
+        <v>44897</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>8.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45030</v>
+        <v>44897</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45104</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45427</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45117</v>
+        <v>45104</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 56202-2023</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45240</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44907</v>
+        <v>45463</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45463</v>
+        <v>45117</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45825</v>
+        <v>44368</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>45117</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45734</v>
+        <v>45005</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44897</v>
+        <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44897</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45674.379375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54580-2023</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45233</v>
+        <v>45030</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54280-2023</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45232.69518518518</v>
+        <v>45048</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45400</v>
+        <v>45406</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>13.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2834,14 +2834,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 54580-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44368</v>
+        <v>45233</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46021</v>
+        <v>45232</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46021</v>
+        <v>45427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3062,14 +3062,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 56202-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46021</v>
+        <v>45240</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3119,14 +3119,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 9570-2026</t>
+          <t>A 38011-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46070</v>
+        <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3176,14 +3176,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 54280-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46021</v>
+        <v>45232.69518518518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45117</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38011-2023</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45160</v>
+        <v>45825</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45400</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44741</v>
+        <v>45734</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45406</v>
+        <v>44741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>13.5</v>
+        <v>8.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 9570-2026</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45005</v>
+        <v>46070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45048</v>
+        <v>46021</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45232</v>
+        <v>46021</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44524</v>
+        <v>46021</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8.1</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3860,14 +3860,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>46021</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,14 +839,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 15571-2024</t>
+          <t>A 31697-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45401</v>
+        <v>45117</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11.1</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -893,290 +893,290 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Lövgroda
+Större vattensalamander</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 28247-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skugglosta
+Nästrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 15571-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Oxtungssvamp
 Guldlockmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 15571-2024 artfynd.xlsx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 15571-2024 karta.png", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 15571-2024 FSC-klagomål.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 15571-2024 FSC-klagomål mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 15571-2024 tillsynsbegäran.docx", "A 15571-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 15571-2024 tillsynsbegäran mail.docx", "A 15571-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31697-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45117</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H6" t="n">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 16122-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45406.50112268519</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SVEDALA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Lövgroda
-Större vattensalamander</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31697-2023 artfynd.xlsx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31697-2023 karta.png", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31697-2023 FSC-klagomål.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31697-2023 FSC-klagomål mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31697-2023 tillsynsbegäran.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31697-2023 tillsynsbegäran mail.docx", "A 31697-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 16122-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45406.50112268519</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Oxtungssvamp
 Myskmadra</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16122-2024 artfynd.xlsx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16122-2024 karta.png", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16122-2024 FSC-klagomål.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16122-2024 FSC-klagomål mail.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16122-2024 tillsynsbegäran.docx", "A 16122-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16122-2024 tillsynsbegäran mail.docx", "A 16122-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 28247-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SVEDALA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Skugglosta
-Nästrot</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 28247-2025 artfynd.xlsx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 28247-2025 karta.png", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 28247-2025 FSC-klagomål.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 28247-2025 FSC-klagomål mail.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 28247-2025 tillsynsbegäran.docx", "A 28247-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 28247-2025 tillsynsbegäran mail.docx", "A 28247-2025")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 16684-2023</t>
+          <t>A 2482-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45030</v>
+        <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1315,52 +1315,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Större grynsnäcka</t>
+          <t>Korallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31700-2023</t>
+          <t>A 16684-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45117</v>
+        <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1407,45 +1407,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Revig blodrot</t>
+          <t>Större grynsnäcka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 16684-2023 artfynd.xlsx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 16684-2023 karta.png", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 16684-2023 FSC-klagomål.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 16684-2023 FSC-klagomål mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 16684-2023 tillsynsbegäran.docx", "A 16684-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 16684-2023 tillsynsbegäran mail.docx", "A 16684-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2482-2025</t>
+          <t>A 31700-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45674</v>
+        <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1485,38 +1485,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Korallticka</t>
+          <t>Revig blodrot</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 2482-2025 artfynd.xlsx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/artfynd/A 31700-2023 artfynd.xlsx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 2482-2025 karta.png", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/kartor/A 31700-2023 karta.png", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 2482-2025 FSC-klagomål.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomål/A 31700-2023 FSC-klagomål.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 2482-2025 FSC-klagomål mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/klagomålsmail/A 31700-2023 FSC-klagomål mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 2482-2025 tillsynsbegäran.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsyn/A 31700-2023 tillsynsbegäran.docx", "A 31700-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 2482-2025 tillsynsbegäran mail.docx", "A 2482-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1263/tillsynsmail/A 31700-2023 tillsynsbegäran mail.docx", "A 31700-2023")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1694,14 +1694,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 59432-2022</t>
+          <t>A 15565-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44907</v>
+        <v>45401.66103009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1751,14 +1751,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 57798-2022</t>
+          <t>A 15582-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44897</v>
+        <v>45401.69502314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1808,14 +1808,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 57803-2022</t>
+          <t>A 25603-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44897</v>
+        <v>45463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1865,14 +1865,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15565-2024</t>
+          <t>A 31701-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45401.66103009259</v>
+        <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1922,14 +1922,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15582-2024</t>
+          <t>A 31393-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45401.69502314815</v>
+        <v>44368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1979,14 +1979,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 29030-2023</t>
+          <t>A 31693-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45104</v>
+        <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.1</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2036,14 +2036,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15577-2024</t>
+          <t>A 13344-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45401.68829861111</v>
+        <v>45005</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2093,14 +2093,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 54282-2023</t>
+          <t>A 67456-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45232.69699074074</v>
+        <v>44524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2150,14 +2150,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 25603-2024</t>
+          <t>A 2408-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45463</v>
+        <v>45674.36113425926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2207,14 +2207,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31701-2023</t>
+          <t>A 2415-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45117</v>
+        <v>45674.379375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2264,14 +2264,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31393-2021</t>
+          <t>A 16690-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44368</v>
+        <v>45030</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2321,14 +2321,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 31693-2023</t>
+          <t>A 59432-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45117</v>
+        <v>44907</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 13344-2023</t>
+          <t>A 57798-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45005</v>
+        <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>8.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2435,14 +2435,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67456-2021</t>
+          <t>A 57803-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44524</v>
+        <v>44897</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2492,14 +2492,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9277-2025</t>
+          <t>A 15577-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45714.63053240741</v>
+        <v>45401.68829861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2549,14 +2549,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2408-2025</t>
+          <t>A 29817-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45674.36113425926</v>
+        <v>45825</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2606,14 +2606,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2415-2025</t>
+          <t>A 12953-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45674.379375</v>
+        <v>45734</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2663,14 +2663,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 16690-2023</t>
+          <t>A 19190-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45030</v>
+        <v>45048</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2720,14 +2720,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19190-2023</t>
+          <t>A 16199-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45048</v>
+        <v>45406</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>13.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2777,14 +2777,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16199-2024</t>
+          <t>A 51318-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45406</v>
+        <v>45950.38170138889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>13.5</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>45233</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2891,14 +2891,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19268-2024</t>
+          <t>A 58350-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45428.63112268518</v>
+        <v>45985.51048611111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2948,14 +2948,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54284-2023</t>
+          <t>A 19268-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45232</v>
+        <v>45428.63112268518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3005,14 +3005,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 18888-2024</t>
+          <t>A 54284-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45427</v>
+        <v>45232</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>45240</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45232.69518518518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3233,14 +3233,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 51318-2025</t>
+          <t>A 64060-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45950.38170138889</v>
+        <v>46021.6172337963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3290,14 +3290,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29817-2025</t>
+          <t>A 9570-2026</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45825</v>
+        <v>46070</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3347,14 +3347,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 58350-2025</t>
+          <t>A 15277-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45985.51048611111</v>
+        <v>45400</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3404,14 +3404,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 15277-2024</t>
+          <t>A 27113-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45400</v>
+        <v>44741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>8.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3461,14 +3461,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12953-2025</t>
+          <t>A 64049-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45734</v>
+        <v>46021</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3518,14 +3518,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27113-2022</t>
+          <t>A 64051-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44741</v>
+        <v>46021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3575,14 +3575,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 64060-2025</t>
+          <t>A 64055-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46021.6172337963</v>
+        <v>46021</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3632,14 +3632,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9570-2026</t>
+          <t>A 64058-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46070</v>
+        <v>46021</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3689,14 +3689,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 64049-2025</t>
+          <t>A 29030-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46021</v>
+        <v>45104</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3746,14 +3746,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64055-2025</t>
+          <t>A 54282-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>46021</v>
+        <v>45232.69699074074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3803,14 +3803,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64058-2025</t>
+          <t>A 9277-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46021</v>
+        <v>45714.63053240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3860,14 +3860,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 64051-2025</t>
+          <t>A 18888-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46021</v>
+        <v>45427</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>

--- a/Översikt SVEDALA.xlsx
+++ b/Översikt SVEDALA.xlsx
@@ -575,7 +575,7 @@
         <v>45009</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45471.66394675926</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>45104</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45117</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>45818</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45401</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45406.50112268519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44686</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>45674</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>45030</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>44704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>45401.66103009259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>45401.69502314815</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45463</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1872,7 +1872,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         <v>44368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>45005</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45674.36113425926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45674.379375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45030</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>44907</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44897</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44897</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>45401.68829861111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>45825</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         <v>45734</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>45048</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45406</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>45950.38170138889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>45233</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45985.51048611111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>45428.63112268518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45232</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45240</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45232.69518518518</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>46021.6172337963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>46070</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>45400</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>44741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>46021</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>46021</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>46021</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>46021</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>45104</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45232.69699074074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>45714.63053240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>45427</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
